--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_named_entities_frequency_headlines.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_named_entities_frequency_headlines.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/alp11_sfu_ca/Documents/SFU/2. Terms/09. 2025_Fall/Discourse Lab/Projects/fake_news_over_time/data/MisInfoText/Analysis_output/social_media/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_411CAE08A2EBC00E16C0049AF1491B0A25F72A58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59CB8604-547D-4F24-AA8C-25A92BDAF0E9}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Entity</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
   <si>
     <t>Wikidata_id</t>
@@ -43,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +129,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -198,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,9 +250,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,14 +426,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,27 +454,30 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>275816</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_named_entities_frequency_headlines.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_named_entities_frequency_headlines.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/alp11_sfu_ca/Documents/SFU/2. Terms/09. 2025_Fall/Discourse Lab/Projects/fake_news_over_time/data/MisInfoText/Analysis_output/social_media/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_411CAE08A2EBC00E16C0049AF1491B0A25F72A58" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59CB8604-547D-4F24-AA8C-25A92BDAF0E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Entity</t>
   </si>
@@ -43,17 +37,32 @@
     <t>Lunar Roving Vehicle</t>
   </si>
   <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Moon Landing</t>
+  </si>
+  <si>
     <t>https://www.wikidata.org/wiki/Q275816</t>
   </si>
   <si>
+    <t>https://www.wikidata.org/wiki/Q1237694</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q17175022</t>
+  </si>
+  <si>
     <t>Lunar Rover</t>
+  </si>
+  <si>
+    <t>Moon Landings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,21 +138,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +182,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -250,10 +250,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,19 +425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -466,18 +460,54 @@
         <v>275816</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3">
+        <v>1237694</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="C4">
+        <v>17175022</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
